--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>93</v>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1326,7 +1326,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4B/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1920,17 +1920,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.23828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1939,29 +1939,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.96484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>when describing a CDA</t>
-  </si>
-  <si>
-    <t>infrastructure.documents</t>
   </si>
   <si>
     <t>DocumentReference.id</t>
@@ -376,7 +373,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -434,10 +431,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -491,10 +484,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>DocumentReference.extension:location-access</t>
   </si>
   <si>
@@ -570,7 +559,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -653,7 +642,7 @@
     <t>The status of the document reference.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -686,7 +675,7 @@
     <t>Status of the underlying document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
     <t>Composition.status</t>
@@ -717,7 +706,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -764,7 +753,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -951,10 +940,6 @@
     <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
-  </si>
-  <si>
     <t>Composition.relatesTo</t>
   </si>
   <si>
@@ -1027,7 +1012,7 @@
     <t>The type of relationship between documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
   </si>
   <si>
     <t>Composition.relatesTo.code</t>
@@ -1197,10 +1182,10 @@
     <t>text/plain; charset=UTF-8, image/png</t>
   </si>
   <si>
-    <t>BCP 13 (RFCs 2045, 2046, 2047, 4288, 4289 and 2049)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.3.0</t>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
   </si>
   <si>
     <t>Attachment.contentType</t>
@@ -1326,7 +1311,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4B/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1945,7 +1930,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.66796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.96484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2209,7 +2194,7 @@
         <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>20</v>
@@ -2220,10 +2205,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2234,28 +2219,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2305,13 +2290,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2343,10 +2328,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2357,25 +2342,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2426,19 +2411,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2464,10 +2449,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2478,28 +2463,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2549,19 +2534,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2587,10 +2572,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2601,7 +2586,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2613,16 +2598,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2648,43 +2633,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2710,21 +2695,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2736,16 +2721,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2795,28 +2780,28 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -2833,14 +2818,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2859,16 +2844,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2918,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2930,7 +2915,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -2939,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -2956,10 +2941,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2967,7 +2952,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>81</v>
@@ -2982,13 +2967,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3027,17 +3012,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3049,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3075,23 +3060,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -3103,13 +3088,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3160,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3169,10 +3154,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3198,13 +3183,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -3226,13 +3211,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3283,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3292,10 +3277,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
@@ -3321,23 +3306,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3349,13 +3334,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3406,7 +3391,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3415,10 +3400,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
@@ -3444,13 +3429,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
@@ -3472,13 +3457,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3529,7 +3514,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3538,10 +3523,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
@@ -3567,13 +3552,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>20</v>
@@ -3583,7 +3568,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -3595,13 +3580,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3652,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3661,10 +3646,10 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
@@ -3690,14 +3675,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3710,25 +3695,25 @@
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3777,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3789,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3798,7 +3783,7 @@
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3815,10 +3800,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3829,31 +3814,31 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3902,48 +3887,48 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AQ16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3951,7 +3936,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>
@@ -3963,16 +3948,16 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4023,7 +4008,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4035,36 +4020,36 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4072,31 +4057,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4122,72 +4107,72 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4198,28 +4183,28 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4245,61 +4230,61 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>20</v>
@@ -4307,10 +4292,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4321,28 +4306,28 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4368,74 +4353,74 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4451,19 +4436,19 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4489,13 +4474,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4513,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4525,36 +4510,36 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4562,28 +4547,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4634,80 +4619,80 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4757,34 +4742,34 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4795,10 +4780,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4818,19 +4803,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4880,7 +4865,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4892,36 +4877,36 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4932,7 +4917,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4944,16 +4929,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5003,48 +4988,48 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5055,7 +5040,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -5067,16 +5052,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5126,28 +5111,28 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5164,10 +5149,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5187,19 +5172,19 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5249,7 +5234,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5261,16 +5246,16 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5282,15 +5267,15 @@
         <v>20</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5301,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5313,13 +5298,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5370,13 +5355,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5391,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -5408,14 +5393,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5434,16 +5419,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5493,7 +5478,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5505,7 +5490,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5514,7 +5499,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5531,14 +5516,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5551,25 +5536,25 @@
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5618,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5630,7 +5615,7 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5639,7 +5624,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5656,10 +5641,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5667,31 +5652,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5717,72 +5702,72 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5790,28 +5775,28 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5862,28 +5847,28 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5895,15 +5880,15 @@
         <v>20</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5914,31 +5899,31 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5987,19 +5972,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -6008,7 +5993,7 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -6017,18 +6002,18 @@
         <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6048,22 +6033,22 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6088,13 +6073,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6112,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6124,36 +6109,36 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6161,7 +6146,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
@@ -6173,16 +6158,16 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6233,10 +6218,10 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>81</v>
@@ -6245,16 +6230,16 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6271,10 +6256,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6285,7 +6270,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6297,13 +6282,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6354,13 +6339,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -6375,7 +6360,7 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6392,14 +6377,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6418,16 +6403,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6477,7 +6462,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6489,7 +6474,7 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6498,7 +6483,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6515,14 +6500,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6535,25 +6520,25 @@
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6602,7 +6587,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6614,7 +6599,7 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6623,7 +6608,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6640,10 +6625,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6651,28 +6636,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6723,48 +6708,48 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6775,7 +6760,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6787,13 +6772,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6844,13 +6829,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -6865,7 +6850,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6882,14 +6867,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6908,16 +6893,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6955,19 +6940,19 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6979,7 +6964,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6988,7 +6973,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -7005,10 +6990,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7019,29 +7004,29 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7054,73 +7039,73 @@
         <v>20</v>
       </c>
       <c r="T42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="U42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="Y42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>20</v>
@@ -7128,10 +7113,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7142,29 +7127,29 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7177,7 +7162,7 @@
         <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>20</v>
@@ -7189,14 +7174,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7213,19 +7198,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7234,7 +7219,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7251,10 +7236,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7265,7 +7250,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7277,19 +7262,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7338,19 +7323,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7359,7 +7344,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7368,7 +7353,7 @@
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AQ44" t="s" s="2">
         <v>20</v>
@@ -7376,10 +7361,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7387,34 +7372,34 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7427,7 +7412,7 @@
         <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>20</v>
@@ -7463,19 +7448,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7484,7 +7469,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7493,7 +7478,7 @@
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>20</v>
@@ -7501,10 +7486,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7515,31 +7500,31 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7588,19 +7573,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7609,7 +7594,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7626,10 +7611,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7640,31 +7625,31 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7713,19 +7698,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7734,7 +7719,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7751,10 +7736,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7765,29 +7750,29 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7800,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>20</v>
@@ -7836,19 +7821,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7857,7 +7842,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7874,10 +7859,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7888,29 +7873,29 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7959,19 +7944,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7980,7 +7965,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7997,10 +7982,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8011,28 +7996,28 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8058,72 +8043,72 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8134,28 +8119,28 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8205,28 +8190,28 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -8243,10 +8228,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8257,7 +8242,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8269,13 +8254,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8326,13 +8311,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -8347,7 +8332,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8364,14 +8349,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8390,16 +8375,16 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8449,7 +8434,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8461,7 +8446,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8470,7 +8455,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8487,14 +8472,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8507,25 +8492,25 @@
         <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8574,7 +8559,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8586,7 +8571,7 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8595,7 +8580,7 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
@@ -8612,10 +8597,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8638,13 +8623,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8695,7 +8680,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8707,22 +8692,22 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8733,10 +8718,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8759,16 +8744,16 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8794,13 +8779,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8818,7 +8803,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8830,16 +8815,16 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
@@ -8851,15 +8836,15 @@
         <v>20</v>
       </c>
       <c r="AQ56" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8870,25 +8855,25 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8939,31 +8924,31 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8972,15 +8957,15 @@
         <v>20</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8991,7 +8976,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -9003,13 +8988,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9036,72 +9021,72 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9112,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -9124,19 +9109,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9161,13 +9146,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9185,31 +9170,31 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9218,15 +9203,15 @@
         <v>20</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9237,7 +9222,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9249,13 +9234,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9306,48 +9291,48 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9370,16 +9355,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9429,7 +9414,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9441,19 +9426,19 @@
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9462,7 +9447,7 @@
         <v>20</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -464,10 +464,10 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>DocumentReference.extension:file-format</t>
-  </si>
-  <si>
-    <t>file-format</t>
+    <t>DocumentReference.extension:fileFormat</t>
+  </si>
+  <si>
+    <t>fileFormat</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/file-format}
@@ -484,10 +484,641 @@
 </t>
   </si>
   <si>
-    <t>DocumentReference.extension:location-access</t>
-  </si>
-  <si>
-    <t>location-access</t>
+    <t>DocumentReference.extension:fileSize</t>
+  </si>
+  <si>
+    <t>fileSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/file-size}
+</t>
+  </si>
+  <si>
+    <t>Indicate the size of the file in reference</t>
+  </si>
+  <si>
+    <t>The size of the file, e.g., in bytes.</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:hash</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/hash-extension}
+</t>
+  </si>
+  <si>
+    <t>Provides a list of hashes for confirming file transfers</t>
+  </si>
+  <si>
+    <t>DocumentReference.extension:contentVersion</t>
+  </si>
+  <si>
+    <t>contentVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/content-version}
+</t>
+  </si>
+  <si>
+    <t>The version of the content in the file</t>
+  </si>
+  <si>
+    <t>Version of the contents of the file</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>A related external file ID</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>current | superseded | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of this document reference.</t>
+  </si>
+  <si>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
+This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the document reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>TXA-19</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>The document that is pointed to might be in various lifecycle states.</t>
+  </si>
+  <si>
+    <t>Status of the underlying document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>TXA-17</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>The type of data contained in this file.</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms-vs</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/code/@code 
+The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>TXA-2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claxs
+</t>
+  </si>
+  <si>
+    <t>Categorization of document</t>
+  </si>
+  <si>
+    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
+</t>
+  </si>
+  <si>
+    <t>The participant(s) for whom this file contains data (i.e., ParticipantID)</t>
+  </si>
+  <si>
+    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/recordTarget/</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientId</t>
+  </si>
+  <si>
+    <t>DocumentReference.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When this document reference was created</t>
+  </si>
+  <si>
+    <t>When the document reference was created.</t>
+  </si>
+  <si>
+    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t>.availabilityTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DocumentReference.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the document</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for adding the information to the document.</t>
+  </si>
+  <si>
+    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/author</t>
+  </si>
+  <si>
+    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.author</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who/what authenticated the document</t>
+  </si>
+  <si>
+    <t>Which person or organization authenticates that this document is valid.</t>
+  </si>
+  <si>
+    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/legalAuthenticator</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>TXA-10</t>
+  </si>
+  <si>
+    <t>DocumentEntry.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the document</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
+  </si>
+  <si>
+    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Relationships to other documents</t>
+  </si>
+  <si>
+    <t>Relationships that this document has with other document references that already exist.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.code</t>
+  </si>
+  <si>
+    <t>replaces | transforms | signs | appends</t>
+  </si>
+  <si>
+    <t>The type of relationship that this document has with anther document.</t>
+  </si>
+  <si>
+    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
+  </si>
+  <si>
+    <t>The type of relationship between documents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.code</t>
+  </si>
+  <si>
+    <t>.outboundRelationship.typeCode</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations type</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Target of the relationship</t>
+  </si>
+  <si>
+    <t>The target document of this relationship.</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.target</t>
+  </si>
+  <si>
+    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
+  </si>
+  <si>
+    <t>DocumentEntry Associations reference</t>
+  </si>
+  <si>
+    <t>DocumentReference.description</t>
+  </si>
+  <si>
+    <t>A description of the file</t>
+  </si>
+  <si>
+    <t>Human-readable description of the source document.</t>
+  </si>
+  <si>
+    <t>What the document is about,  a terse summary of the document.</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the document is of interest.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
+  </si>
+  <si>
+    <t>TXA-25</t>
+  </si>
+  <si>
+    <t>DocumentEntry.comments</t>
+  </si>
+  <si>
+    <t>DocumentReference.securityLabel</t>
+  </si>
+  <si>
+    <t>Document security-tags</t>
+  </si>
+  <si>
+    <t>A set of Security-Tag codes specifying the level of privacy/security of the Document. Note that DocumentReference.meta.security contains the security labels of the "reference" to the document, while DocumentReference.securityLabel contains a snapshot of the security labels on the document the reference refers to.</t>
+  </si>
+  <si>
+    <t>The confidentiality codes can carry multiple vocabulary items. HL7 has developed an understanding of security and privacy tags that might be desirable in a Document Sharing environment, called HL7 Healthcare Privacy and Security Classification System (HCS). The following specification is recommended but not mandated, as the vocabulary bindings are an administrative domain responsibility. The use of this method is up to the policy domain such as the XDS Affinity Domain or other Trust Domain where all parties including sender and recipients are trusted to appropriately tag and enforce.   
+In the HL7 Healthcare Privacy and Security Classification (HCS) there are code systems specific to Confidentiality, Sensitivity, Integrity, and Handling Caveats. Some values would come from a local vocabulary as they are related to workflow roles and special projects.</t>
+  </si>
+  <si>
+    <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Composition.confidentiality, Composition.meta.security</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/confidentialityCode/@code</t>
+  </si>
+  <si>
+    <t>TXA-18</t>
+  </si>
+  <si>
+    <t>DocumentEntry.confidentialityCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.content</t>
+  </si>
+  <si>
+    <t>Document referenced</t>
+  </si>
+  <si>
+    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
+  </si>
+  <si>
+    <t>Bundle(Composition+*)</t>
+  </si>
+  <si>
+    <t>document.text</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.extension:locationAccess</t>
+  </si>
+  <si>
+    <t>locationAccess</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/location-access}
@@ -495,637 +1126,6 @@
   </si>
   <si>
     <t>If present, only those under the specific Access Policy can access the file in this location.</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension:file-size</t>
-  </si>
-  <si>
-    <t>file-size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/file-size}
-</t>
-  </si>
-  <si>
-    <t>Indicate the size of the file in reference</t>
-  </si>
-  <si>
-    <t>The size of the file, e.g., in bytes.</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension:hash</t>
-  </si>
-  <si>
-    <t>hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/hash-extension}
-</t>
-  </si>
-  <si>
-    <t>Provides a list of hashes for confirming file transfers</t>
-  </si>
-  <si>
-    <t>DocumentReference.extension:content-version</t>
-  </si>
-  <si>
-    <t>content-version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nih-ncpi.github.io/ncpi-fhir-ig-2/StructureDefinition/content-version}
-</t>
-  </si>
-  <si>
-    <t>The version of the content in the file</t>
-  </si>
-  <si>
-    <t>Version of the contents of the file</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>A related external file ID</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>current | superseded | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of this document reference.</t>
-  </si>
-  <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the document reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>TXA-19</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>DocumentReference.docStatus</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>The document that is pointed to might be in various lifecycle states.</t>
-  </si>
-  <si>
-    <t>Status of the underlying document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>TXA-17</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>The type of data contained in this file.</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/ValueSet/edam-ontology-terms-vs</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/code/@code 
-The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>TXA-2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claxs
-</t>
-  </si>
-  <si>
-    <t>Categorization of document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
-</t>
-  </si>
-  <si>
-    <t>The participant(s) for whom this file contains data (i.e., ParticipantID)</t>
-  </si>
-  <si>
-    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/recordTarget/</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>DocumentReference.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indexed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When this document reference was created</t>
-  </si>
-  <si>
-    <t>When the document reference was created.</t>
-  </si>
-  <si>
-    <t>Referencing/indexing time is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t>.availabilityTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DocumentReference.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the document</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for adding the information to the document.</t>
-  </si>
-  <si>
-    <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/author</t>
-  </si>
-  <si>
-    <t>TXA-9 (No standard way to indicate a Device in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.author</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who/what authenticated the document</t>
-  </si>
-  <si>
-    <t>Which person or organization authenticates that this document is valid.</t>
-  </si>
-  <si>
-    <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/legalAuthenticator</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>TXA-10</t>
-  </si>
-  <si>
-    <t>DocumentEntry.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the document</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the document.</t>
-  </si>
-  <si>
-    <t>Identifies the logical organization (software system, vendor, or department) to go to find the current version, where to report issues, etc. This is different from the physical location (URL, disk drive, or server) of the document, which is the technical location of the document, which host may be delegated to the management of some other organization.</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Relationships to other documents</t>
-  </si>
-  <si>
-    <t>Relationships that this document has with other document references that already exist.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.code</t>
-  </si>
-  <si>
-    <t>replaces | transforms | signs | appends</t>
-  </si>
-  <si>
-    <t>The type of relationship that this document has with anther document.</t>
-  </si>
-  <si>
-    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
-  </si>
-  <si>
-    <t>The type of relationship between documents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.code</t>
-  </si>
-  <si>
-    <t>.outboundRelationship.typeCode</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations type</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Target of the relationship</t>
-  </si>
-  <si>
-    <t>The target document of this relationship.</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.target</t>
-  </si>
-  <si>
-    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
-  </si>
-  <si>
-    <t>DocumentEntry Associations reference</t>
-  </si>
-  <si>
-    <t>DocumentReference.description</t>
-  </si>
-  <si>
-    <t>A description of the file</t>
-  </si>
-  <si>
-    <t>Human-readable description of the source document.</t>
-  </si>
-  <si>
-    <t>What the document is about,  a terse summary of the document.</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the document is of interest.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].target.text</t>
-  </si>
-  <si>
-    <t>TXA-25</t>
-  </si>
-  <si>
-    <t>DocumentEntry.comments</t>
-  </si>
-  <si>
-    <t>DocumentReference.securityLabel</t>
-  </si>
-  <si>
-    <t>Document security-tags</t>
-  </si>
-  <si>
-    <t>A set of Security-Tag codes specifying the level of privacy/security of the Document. Note that DocumentReference.meta.security contains the security labels of the "reference" to the document, while DocumentReference.securityLabel contains a snapshot of the security labels on the document the reference refers to.</t>
-  </si>
-  <si>
-    <t>The confidentiality codes can carry multiple vocabulary items. HL7 has developed an understanding of security and privacy tags that might be desirable in a Document Sharing environment, called HL7 Healthcare Privacy and Security Classification System (HCS). The following specification is recommended but not mandated, as the vocabulary bindings are an administrative domain responsibility. The use of this method is up to the policy domain such as the XDS Affinity Domain or other Trust Domain where all parties including sender and recipients are trusted to appropriately tag and enforce.   
-In the HL7 Healthcare Privacy and Security Classification (HCS) there are code systems specific to Confidentiality, Sensitivity, Integrity, and Handling Caveats. Some values would come from a local vocabulary as they are related to workflow roles and special projects.</t>
-  </si>
-  <si>
-    <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Composition.confidentiality, Composition.meta.security</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/confidentialityCode/@code</t>
-  </si>
-  <si>
-    <t>TXA-18</t>
-  </si>
-  <si>
-    <t>DocumentEntry.confidentialityCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.content</t>
-  </si>
-  <si>
-    <t>Document referenced</t>
-  </si>
-  <si>
-    <t>The document and format referenced. There may be multiple content element repetitions, each with a different format.</t>
-  </si>
-  <si>
-    <t>Bundle(Composition+*)</t>
-  </si>
-  <si>
-    <t>document.text</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.content.extension</t>
   </si>
   <si>
     <t>DocumentReference.content.modifierExtension</t>
@@ -1905,9 +1905,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.9375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.23828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -3196,10 +3196,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -3217,7 +3217,7 @@
         <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3306,23 +3306,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3334,10 +3334,10 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>159</v>
@@ -3445,7 +3445,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3463,7 +3463,7 @@
         <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3552,35 +3552,33 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>165</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>167</v>
@@ -3588,8 +3586,12 @@
       <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3646,7 +3648,7 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>144</v>
@@ -3658,7 +3660,7 @@
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3675,45 +3677,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3762,48 +3764,48 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3814,7 +3816,7 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3826,20 +3828,16 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3887,13 +3885,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3902,33 +3900,33 @@
         <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AP16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3936,30 +3934,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3984,13 +3984,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -4008,13 +4008,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -4023,33 +4023,33 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>92</v>
@@ -4066,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>93</v>
@@ -4075,13 +4075,13 @@
         <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4107,13 +4107,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4131,10 +4131,10 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>92</v>
@@ -4146,33 +4146,33 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4195,16 +4195,16 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4230,31 +4230,29 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4269,44 +4267,44 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4318,16 +4316,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4353,11 +4351,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4375,13 +4375,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -4390,44 +4390,44 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AP20" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4439,17 +4439,15 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4474,13 +4472,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4498,13 +4496,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -4513,41 +4511,41 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
@@ -4562,15 +4560,17 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4619,7 +4619,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4634,44 +4634,44 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4683,16 +4683,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4742,13 +4742,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -4757,33 +4757,33 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4794,7 +4794,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4803,19 +4803,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4865,13 +4865,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4880,33 +4880,33 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4929,16 +4929,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4988,7 +4988,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5003,33 +5003,33 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5040,7 +5040,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -5049,19 +5049,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5111,13 +5111,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -5126,13 +5126,13 @@
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5144,15 +5144,15 @@
         <v>20</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>20</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5163,7 +5163,7 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -5172,20 +5172,18 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5234,28 +5232,28 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5267,26 +5265,26 @@
         <v>20</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5298,15 +5296,17 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5355,19 +5355,19 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
@@ -5376,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5413,24 +5413,26 @@
         <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5499,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>135</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5516,33 +5518,33 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>312</v>
@@ -5551,11 +5553,9 @@
         <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5579,13 +5579,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5603,28 +5603,28 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>135</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5636,15 +5636,15 @@
         <v>20</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5667,17 +5667,15 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>112</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5702,31 +5700,31 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>92</v>
@@ -5744,10 +5742,10 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5759,15 +5757,15 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5775,7 +5773,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>92</v>
@@ -5790,16 +5788,20 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5847,10 +5849,10 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>92</v>
@@ -5865,10 +5867,10 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5877,18 +5879,18 @@
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5899,7 +5901,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5911,19 +5913,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5948,13 +5950,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5972,13 +5974,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5990,30 +5992,30 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6021,7 +6023,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -6036,20 +6038,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6073,13 +6071,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -6097,10 +6095,10 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
@@ -6115,30 +6113,30 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6146,11 +6144,11 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6158,16 +6156,16 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6218,28 +6216,28 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6256,10 +6254,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6270,7 +6268,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6282,13 +6280,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6327,31 +6325,29 @@
         <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6360,7 +6356,7 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6377,14 +6373,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D37" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6403,17 +6401,15 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6462,7 +6458,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6471,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>144</v>
@@ -6483,7 +6479,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6507,7 +6503,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6529,16 +6525,16 @@
         <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6587,7 +6583,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6729,7 +6725,7 @@
         <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>364</v>
@@ -6772,13 +6768,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6829,7 +6825,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6850,7 +6846,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6874,7 +6870,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6896,13 +6892,13 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6952,7 +6948,7 @@
         <v>142</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6973,7 +6969,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -7051,7 +7047,7 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Y42" t="s" s="2">
         <v>375</v>
@@ -7762,7 +7758,7 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>422</v>
@@ -8088,7 +8084,7 @@
         <v>441</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>442</v>
@@ -8131,7 +8127,7 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>445</v>
@@ -8254,13 +8250,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8311,7 +8307,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8332,7 +8328,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8356,7 +8352,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8378,13 +8374,13 @@
         <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8434,7 +8430,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8455,7 +8451,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8479,7 +8475,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8501,16 +8497,16 @@
         <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8559,7 +8555,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8744,7 +8740,7 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>461</v>
@@ -8779,7 +8775,7 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>464</v>
@@ -8988,7 +8984,7 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>478</v>
@@ -9021,7 +9017,7 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y58" t="s" s="2">
         <v>480</v>
@@ -9109,7 +9105,7 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>487</v>
@@ -9146,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Y59" t="s" s="2">
         <v>491</v>
@@ -9309,13 +9305,13 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-file.xlsx
+++ b/StructureDefinition-ncpi-file.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
